--- a/FinalParticipants.xlsx
+++ b/FinalParticipants.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fnoardo/Documents/geoBIM/benchmark/benchmarkExe/FinalOutcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4BB207-9AEE-A146-96DA-345DBF3CB6D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A7D23-5990-EA45-9A1E-8979CBD72580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="5000" windowWidth="21880" windowHeight="16560" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45280" yWindow="460" windowWidth="21880" windowHeight="20160" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IbdpZD" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="657">
   <si>
     <t>Your name and surname</t>
   </si>
@@ -2029,7 +2030,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2072,6 +2073,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2086,20 +2117,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2442,14 +2487,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="10" width="8.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="2" max="9" width="8.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="31.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.83203125" style="1" customWidth="1"/>
@@ -2463,117 +2510,118 @@
     <col min="21" max="21" width="16.33203125" style="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="1" customWidth="1"/>
     <col min="23" max="23" width="21.1640625" style="1" customWidth="1"/>
-    <col min="24" max="28" width="9.5" style="1"/>
-    <col min="29" max="36" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="27" width="9.5" style="1"/>
+    <col min="28" max="36" width="15.1640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2719,7 +2767,7 @@
       <c r="J3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -2941,7 +2989,7 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -3157,7 +3205,7 @@
       <c r="J7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -3235,7 +3283,7 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3592,7 +3640,7 @@
       <c r="J11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>122</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -3784,7 +3832,7 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3922,7 +3970,7 @@
       <c r="J14" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -4000,7 +4048,7 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>155</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4030,7 +4078,7 @@
       <c r="J15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>158</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -4138,7 +4186,7 @@
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -4249,7 +4297,7 @@
       <c r="J17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>174</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -4327,7 +4375,7 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -4357,7 +4405,7 @@
       <c r="J18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="7" t="s">
         <v>184</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -4468,7 +4516,7 @@
       <c r="J19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>192</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -4546,7 +4594,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4576,7 +4624,7 @@
       <c r="J20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -4684,7 +4732,7 @@
       <c r="J21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>209</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -4792,7 +4840,7 @@
       <c r="J22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>217</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -4870,7 +4918,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>221</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4900,7 +4948,7 @@
       <c r="J23" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="7" t="s">
         <v>223</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -5119,7 +5167,7 @@
       <c r="J25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>237</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -5227,7 +5275,7 @@
       <c r="J26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="7" t="s">
         <v>247</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -5338,7 +5386,7 @@
       <c r="J27" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="7" t="s">
         <v>255</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -5446,7 +5494,7 @@
       <c r="J28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>261</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -5527,7 +5575,7 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>267</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -5557,7 +5605,7 @@
       <c r="J29" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="7" t="s">
         <v>270</v>
       </c>
       <c r="L29" s="1" t="s">
@@ -5668,7 +5716,7 @@
       <c r="J30" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>279</v>
       </c>
       <c r="L30" s="1" t="s">
@@ -5749,7 +5797,7 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>285</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -5779,7 +5827,7 @@
       <c r="J31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>287</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -5887,7 +5935,7 @@
       <c r="J32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L32" s="1" t="s">
@@ -5965,7 +6013,7 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>296</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -5995,7 +6043,7 @@
       <c r="J33" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>299</v>
       </c>
       <c r="L33" s="1" t="s">
@@ -6103,7 +6151,7 @@
       <c r="J34" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="7" t="s">
         <v>307</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -6214,7 +6262,7 @@
       <c r="J35" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="7" t="s">
         <v>313</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -6292,7 +6340,7 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -6322,7 +6370,7 @@
       <c r="J36" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>321</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -6430,7 +6478,7 @@
       <c r="J37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>327</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -6538,7 +6586,7 @@
       <c r="J38" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="7" t="s">
         <v>336</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -6619,7 +6667,7 @@
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>341</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -6649,7 +6697,7 @@
       <c r="J39" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="14" t="s">
         <v>343</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -6757,7 +6805,7 @@
       <c r="J40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="7" t="s">
         <v>350</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -6835,7 +6883,7 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -6865,7 +6913,7 @@
       <c r="J41" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="7" t="s">
         <v>358</v>
       </c>
       <c r="L41" s="1" t="s">
@@ -6976,7 +7024,7 @@
       <c r="J42" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="7" t="s">
         <v>367</v>
       </c>
       <c r="L42" s="1" t="s">
@@ -7087,7 +7135,7 @@
       <c r="J43" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="7" t="s">
         <v>373</v>
       </c>
       <c r="L43" s="1" t="s">
@@ -7198,7 +7246,7 @@
       <c r="J44" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="7" t="s">
         <v>379</v>
       </c>
       <c r="L44" s="1" t="s">
@@ -7309,7 +7357,7 @@
       <c r="J45" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="7" t="s">
         <v>387</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -7417,7 +7465,7 @@
       <c r="J46" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="2" t="s">
         <v>394</v>
       </c>
       <c r="L46" s="1" t="s">
@@ -7495,7 +7543,7 @@
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>398</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -7525,7 +7573,7 @@
       <c r="J47" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="7" t="s">
         <v>401</v>
       </c>
       <c r="L47" s="1" t="s">
@@ -7633,7 +7681,7 @@
       <c r="J48" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="7" t="s">
         <v>408</v>
       </c>
       <c r="L48" s="1" t="s">
@@ -7744,7 +7792,7 @@
       <c r="J49" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="12" t="s">
         <v>415</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -7822,7 +7870,7 @@
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -7852,7 +7900,7 @@
       <c r="J50" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="7" t="s">
         <v>421</v>
       </c>
       <c r="L50" s="1" t="s">
@@ -7960,7 +8008,7 @@
       <c r="J51" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="7" t="s">
         <v>427</v>
       </c>
       <c r="L51" s="1" t="s">
@@ -8146,7 +8194,7 @@
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>439</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -8176,7 +8224,7 @@
       <c r="J53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="7" t="s">
         <v>441</v>
       </c>
       <c r="L53" s="1" t="s">
@@ -8284,7 +8332,7 @@
       <c r="J54" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="7" t="s">
         <v>448</v>
       </c>
       <c r="L54" s="1" t="s">
@@ -8392,7 +8440,7 @@
       <c r="J55" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="7" t="s">
         <v>454</v>
       </c>
       <c r="L55" s="1" t="s">
@@ -8500,7 +8548,7 @@
       <c r="J56" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="2" t="s">
         <v>462</v>
       </c>
       <c r="L56" s="1" t="s">
@@ -8611,7 +8659,7 @@
       <c r="J57" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="7" t="s">
         <v>468</v>
       </c>
       <c r="L57" s="1" t="s">
@@ -8722,7 +8770,7 @@
       <c r="J58" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="2" t="s">
         <v>475</v>
       </c>
       <c r="L58" s="1" t="s">
@@ -8833,7 +8881,7 @@
       <c r="J59" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="7" t="s">
         <v>482</v>
       </c>
       <c r="L59" s="1" t="s">
@@ -8914,7 +8962,7 @@
       </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>486</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -8944,7 +8992,7 @@
       <c r="J60" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="7" t="s">
         <v>488</v>
       </c>
       <c r="L60" s="1" t="s">
@@ -9052,7 +9100,7 @@
       <c r="J61" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="K61" s="12" t="s">
         <v>499</v>
       </c>
       <c r="L61" s="1" t="s">
@@ -9160,7 +9208,7 @@
       <c r="J62" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="13" t="s">
         <v>505</v>
       </c>
       <c r="L62" s="1" t="s">
@@ -9271,7 +9319,7 @@
       <c r="J63" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="2" t="s">
         <v>512</v>
       </c>
       <c r="L63" s="1" t="s">
@@ -9379,7 +9427,7 @@
       <c r="J64" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" s="2" t="s">
         <v>520</v>
       </c>
       <c r="L64" s="1" t="s">
@@ -9487,7 +9535,7 @@
       <c r="J65" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="2" t="s">
         <v>526</v>
       </c>
       <c r="L65" s="1" t="s">
@@ -9595,7 +9643,7 @@
       <c r="J66" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="2" t="s">
         <v>532</v>
       </c>
       <c r="L66" s="1" t="s">
@@ -9703,7 +9751,7 @@
       <c r="J67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="2" t="s">
         <v>538</v>
       </c>
       <c r="L67" s="1" t="s">
@@ -9781,7 +9829,7 @@
       </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -9811,7 +9859,7 @@
       <c r="J68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K68" s="14" t="s">
         <v>321</v>
       </c>
       <c r="L68" s="1" t="s">
@@ -9919,7 +9967,7 @@
       <c r="J69" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="2" t="s">
         <v>512</v>
       </c>
       <c r="L69" s="1" t="s">
@@ -10027,7 +10075,7 @@
       <c r="J70" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" s="2" t="s">
         <v>553</v>
       </c>
       <c r="L70" s="1" t="s">
@@ -10138,7 +10186,7 @@
       <c r="J71" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" s="2" t="s">
         <v>559</v>
       </c>
       <c r="L71" s="1" t="s">
@@ -10246,7 +10294,7 @@
       <c r="J72" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" s="2" t="s">
         <v>566</v>
       </c>
       <c r="L72" s="1" t="s">
@@ -10354,7 +10402,7 @@
       <c r="J73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" s="2" t="s">
         <v>572</v>
       </c>
       <c r="L73" s="1" t="s">
@@ -10462,7 +10510,7 @@
       <c r="J74" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="2" t="s">
         <v>579</v>
       </c>
       <c r="L74" s="1" t="s">
@@ -10570,7 +10618,7 @@
       <c r="J75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" s="2" t="s">
         <v>584</v>
       </c>
       <c r="L75" s="1" t="s">
@@ -10678,7 +10726,7 @@
       <c r="J76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="2" t="s">
         <v>591</v>
       </c>
       <c r="L76" s="1" t="s">
@@ -10786,7 +10834,7 @@
       <c r="J77" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" s="2" t="s">
         <v>599</v>
       </c>
       <c r="L77" s="1" t="s">
@@ -10894,7 +10942,7 @@
       <c r="J78" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="2" t="s">
         <v>606</v>
       </c>
       <c r="L78" s="1" t="s">
@@ -11110,7 +11158,7 @@
       <c r="J80" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K80" s="6" t="s">
+      <c r="K80" s="12" t="s">
         <v>619</v>
       </c>
       <c r="L80" s="1" t="s">
@@ -11188,7 +11236,7 @@
       </c>
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>624</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -11218,7 +11266,7 @@
       <c r="J81" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="14" t="s">
         <v>625</v>
       </c>
       <c r="L81" s="1" t="s">
@@ -11296,7 +11344,7 @@
       </c>
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>630</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -11326,7 +11374,7 @@
       <c r="J82" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" s="13" t="s">
         <v>632</v>
       </c>
       <c r="L82" s="1" t="s">
@@ -11434,7 +11482,7 @@
       <c r="J83" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" s="2" t="s">
         <v>640</v>
       </c>
       <c r="L83" s="1" t="s">
@@ -11515,7 +11563,7 @@
       </c>
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>644</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -11545,7 +11593,7 @@
       <c r="J84" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="12" t="s">
         <v>646</v>
       </c>
       <c r="L84" s="1" t="s">
@@ -11656,7 +11704,7 @@
       <c r="J85" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K85" s="6" t="s">
+      <c r="K85" s="13" t="s">
         <v>652</v>
       </c>
       <c r="L85" s="1" t="s">
@@ -11750,4 +11798,4475 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B10D7E-8871-3B43-B598-836B18C53CE3}">
+  <dimension ref="A1:AJ41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27" style="1" customWidth="1"/>
+    <col min="2" max="9" width="8.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1640625" style="1" customWidth="1"/>
+    <col min="24" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="36" width="15.1640625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="19" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/e9d9958c27ce07864a275feb6cb13d4bb669225fac8667e7451be4d61bcfa685/GEOBIM_Test_ArcGIS_Pro_Editing.jpg","https://api.typeform.com/responses/files/e9d9958c27ce07864a275feb6cb13d4bb669225fac8667e7451be4d61bcfa685/GEOBIM_Test_ArcGIS_Pro_Editing.jpg")</f>
+        <v>https://api.typeform.com/responses/files/e9d9958c27ce07864a275feb6cb13d4bb669225fac8667e7451be4d61bcfa685/GEOBIM_Test_ArcGIS_Pro_Editing.jpg</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="19" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/8b20bd93c2cf67f753f8e9f58e35919f3ffe276ce0b11263379f351eac6d3647/1Spatial_Colour_RGB.png","https://api.typeform.com/responses/files/8b20bd93c2cf67f753f8e9f58e35919f3ffe276ce0b11263379f351eac6d3647/1Spatial_Colour_RGB.png")</f>
+        <v>https://api.typeform.com/responses/files/8b20bd93c2cf67f753f8e9f58e35919f3ffe276ce0b11263379f351eac6d3647/1Spatial_Colour_RGB.png</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI4" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="21" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/c68a37a3de4458597296e8a3c66834de59f48137630e364c87c88e90acf09459/a8f8906d_a7d6_40ec_ba9f_0e992264f20b.jpg","https://api.typeform.com/responses/files/c68a37a3de4458597296e8a3c66834de59f48137630e364c87c88e90acf09459/a8f8906d_a7d6_40ec_ba9f_0e992264f20b.jpg")</f>
+        <v>https://api.typeform.com/responses/files/c68a37a3de4458597296e8a3c66834de59f48137630e364c87c88e90acf09459/a8f8906d_a7d6_40ec_ba9f_0e992264f20b.jpg</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC10" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH11" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI11" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ11" s="23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH12" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI12" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ12" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH13" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI13" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ13" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH14" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI14" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="16" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/d761f01fbfa323e5bb076754e8a2eb9a7a24b34d3593ae62012234df6c9272e0/foto.jpg","https://api.typeform.com/responses/files/d761f01fbfa323e5bb076754e8a2eb9a7a24b34d3593ae62012234df6c9272e0/foto.jpg")</f>
+        <v>https://api.typeform.com/responses/files/d761f01fbfa323e5bb076754e8a2eb9a7a24b34d3593ae62012234df6c9272e0/foto.jpg</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH15" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI15" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ15" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="24" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/43a2481bf141ac672604bfa0d0adb6c01cd8a0c01f39eec145b15e90eba6f5e4/IGN_log_Reserve_GRIS_RVB.gif","https://api.typeform.com/responses/files/43a2481bf141ac672604bfa0d0adb6c01cd8a0c01f39eec145b15e90eba6f5e4/IGN_log_Reserve_GRIS_RVB.gif")</f>
+        <v>https://api.typeform.com/responses/files/43a2481bf141ac672604bfa0d0adb6c01cd8a0c01f39eec145b15e90eba6f5e4/IGN_log_Reserve_GRIS_RVB.gif</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="W16" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="X16" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH16" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI16" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="AJ16" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W17" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="X17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH17" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI17" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AJ17" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="V18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH18" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI18" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ18" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH19" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI19" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ19" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="L20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="19" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/e7247ca225ccfbfec2ccce57d285ecea03ff42c4a5e27f9d649132d4128407ed/moss_407_334_300dpi_rgb.jpg","https://api.typeform.com/responses/files/e7247ca225ccfbfec2ccce57d285ecea03ff42c4a5e27f9d649132d4128407ed/moss_407_334_300dpi_rgb.jpg")</f>
+        <v>https://api.typeform.com/responses/files/e7247ca225ccfbfec2ccce57d285ecea03ff42c4a5e27f9d649132d4128407ed/moss_407_334_300dpi_rgb.jpg</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI20" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ20" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="21" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/26fb419422976220d60e79b2dac9d9b34983f6c82da306a5ae95cdabdf113235/Mojgan_Jadidi.jpeg","https://api.typeform.com/responses/files/26fb419422976220d60e79b2dac9d9b34983f6c82da306a5ae95cdabdf113235/Mojgan_Jadidi.jpeg")</f>
+        <v>https://api.typeform.com/responses/files/26fb419422976220d60e79b2dac9d9b34983f6c82da306a5ae95cdabdf113235/Mojgan_Jadidi.jpeg</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH21" s="20" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI21" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ21" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="M22" s="21" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/b5c211d4b1814e111879026d70621a16da2bc97b3cf4a3e1b0015c6cb17eefd1/Nebras_Salheb_GeoBIM.jpg","https://api.typeform.com/responses/files/b5c211d4b1814e111879026d70621a16da2bc97b3cf4a3e1b0015c6cb17eefd1/Nebras_Salheb_GeoBIM.jpg")</f>
+        <v>https://api.typeform.com/responses/files/b5c211d4b1814e111879026d70621a16da2bc97b3cf4a3e1b0015c6cb17eefd1/Nebras_Salheb_GeoBIM.jpg</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="AI22" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="AJ22" s="20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC23" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH23" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI23" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AJ23" s="20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH24" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH25" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AI25" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="AJ25" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE26" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG26" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH26" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI26" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ26" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH27" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="AI27" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="AJ27" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG28" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH28" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI28" s="20" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ28" s="20" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="24" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/cc8b42fb36dbe87afff95fdbd9b0e6f166611b2ba005ff7065390038a4580131/MPla_JTL_1_3.JPG","https://api.typeform.com/responses/files/cc8b42fb36dbe87afff95fdbd9b0e6f166611b2ba005ff7065390038a4580131/MPla_JTL_1_3.JPG")</f>
+        <v>https://api.typeform.com/responses/files/cc8b42fb36dbe87afff95fdbd9b0e6f166611b2ba005ff7065390038a4580131/MPla_JTL_1_3.JPG</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH29" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="AI29" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ29" s="23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>558</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH30" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="AI30" s="20" t="s">
+        <v>561</v>
+      </c>
+      <c r="AJ30" s="20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="N31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC31" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG31" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH31" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="AI31" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="AJ31" s="20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG32" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH32" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI32" s="20" t="s">
+        <v>575</v>
+      </c>
+      <c r="AJ32" s="20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG33" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH33" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI33" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="AJ33" s="20" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG34" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH34" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="AI34" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="AJ34" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="N35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC35" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE35" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH35" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="AI35" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="AJ35" s="20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q36" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V36" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB36" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC36" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH36" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI36" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="AJ36" s="20" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>604</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="N37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T37" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB37" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE37" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH37" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI37" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ37" s="20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q38" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA38" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC38" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD38" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF38" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH38" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="AI38" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="AJ38" s="20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="U39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="X39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC39" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF39" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG39" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH39" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AI39" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="AJ39" s="23" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M40" s="21" t="str">
+        <f>HYPERLINK("https://api.typeform.com/responses/files/49cc23e00134ad7d764315d6dda60a2bd28f1504992afb9adb67b49b409eb1ec/DOGUS_5x5_mail.JPG","https://api.typeform.com/responses/files/49cc23e00134ad7d764315d6dda60a2bd28f1504992afb9adb67b49b409eb1ec/DOGUS_5x5_mail.JPG")</f>
+        <v>https://api.typeform.com/responses/files/49cc23e00134ad7d764315d6dda60a2bd28f1504992afb9adb67b49b409eb1ec/DOGUS_5x5_mail.JPG</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q40" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T40" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="X40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC40" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG40" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH40" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="AI40" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="AJ40" s="20" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>652</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="W41" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="X41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC41" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF41" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG41" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH41" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI41" s="20" t="s">
+        <v>655</v>
+      </c>
+      <c r="AJ41" s="20" t="s">
+        <v>656</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K41" r:id="rId1" xr:uid="{3D2A68FC-4C08-EB4F-8E5A-7A6A92F308E0}"/>
+    <hyperlink ref="K39" r:id="rId2" xr:uid="{57B27203-80B5-5D4C-8F86-26DC43DA5550}"/>
+    <hyperlink ref="K22" r:id="rId3" xr:uid="{A9D73044-9208-6842-B7A0-12E0F33DF10E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>